--- a/StructureDefinition-pco-readiness-assessment.xlsx
+++ b/StructureDefinition-pco-readiness-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T14:30:29+00:00</t>
+    <t>2025-01-19T16:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-readiness-assessment.xlsx
+++ b/StructureDefinition-pco-readiness-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T16:32:23+00:00</t>
+    <t>2025-01-25T16:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-readiness-assessment.xlsx
+++ b/StructureDefinition-pco-readiness-assessment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="466">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -912,11 +912,7 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>A scale value, e.g. ranging from 1 to 10</t>
+    <t>A scale value ranging from 0 to 10</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
@@ -926,6 +922,9 @@
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t>http://loinc.org/vs/LL2335-9</t>
   </si>
   <si>
     <t>obs-7
@@ -4788,19 +4787,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4825,13 +4824,11 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -7808,13 +7805,13 @@
         <v>454</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>455</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-pco-readiness-assessment.xlsx
+++ b/StructureDefinition-pco-readiness-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T23:01:50+00:00</t>
+    <t>2025-02-10T21:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
